--- a/統合テスト仕様書（三目並べゲーム）.xlsx
+++ b/統合テスト仕様書（三目並べゲーム）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git4\-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Git2\-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CFF87F-4CCD-43A4-BF13-FF2E6323C5F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B611BE-54DD-426E-B6ED-656C58A88A86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="540" windowWidth="18375" windowHeight="10290" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="記述例" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
   <si>
     <t>タイトル：ＸＸＸシステム テスト仕様書</t>
     <phoneticPr fontId="2"/>
@@ -230,20 +230,6 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>マークを置けるかどうか確認する。
-埋まっているセルが選択された場合</t>
-    <rPh sb="17" eb="18">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>統合</t>
     <rPh sb="0" eb="2">
       <t>トウゴウ</t>
@@ -251,6 +237,32 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ゲームを終了する場合</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定された三つの座標にマークがあることを確かめる。</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>trueを返す</t>
     <rPh sb="5" eb="6">
       <t>カエ</t>
@@ -262,6 +274,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>マークがそろっていない場合</t>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>falseを返す</t>
     <rPh sb="6" eb="7">
       <t>カエ</t>
@@ -421,111 +440,59 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>1.selectCell()を呼び出す。
+2.範囲外の座標（0,4）を入力する。</t>
+    <rPh sb="23" eb="25">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何も返ってこない。</t>
+  </si>
+  <si>
     <t>タイトル：Line・Cellテスト仕様書</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.Cell(1,1)に〇を設定。_x000D_
-2.Boardインスタンスを作成する。_x000D_
-3.judgeを実行。_x000D_
-4..Lineインスタンスを作成する。_x000D_
-5..checkLineを実行する。</t>
-  </si>
-  <si>
     <t>システムは、「１～３の数字を選択してください」と表示する。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マークが三つそろっている場合</t>
-    <rPh sb="4" eb="5">
-      <t>ミッ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
+    <t>1.selectCell()を呼び出す。
+2.埋まっていない座標（1,1）を入力する。</t>
+    <rPh sb="23" eb="24">
+      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マークが三つそろっていない場合</t>
-    <rPh sb="4" eb="5">
-      <t>ミッ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.Cell(1,1)に〇を設定。
+    <t xml:space="preserve">1.Cell(1,1)に〇を設定。
 2.Cell(2,2)に〇を設定。
 3.Cell(3,3)に〇を設定。
 4.Boardインスタンスを作成する。
 5.Judgeを実行。
-6.Lineインスタンスを作成する。
-7.checkLineを実行する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Cell(1,1)に〇を設定。
-2.Cell(2,2)に〇を設定。
-3.Cell(3,3)に〇を設定。
-4.Lineインスタンスを作成する。
-5.checkLineを実行。
 </t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">1.Cell(1,1)に〇を設定。
-2.Cell(2,1)に〇を設定。
-3.Cell(3,3)に〇を設定。
-4.Lineインスタンスを作成する。
-5.checkLineを実行。
+2.Boardインスタンスを作成する。
+3.judgeを実行。
 </t>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マークを置けるかどうか確認する。
+範囲外が埋まっているセルの場合</t>
+    <rPh sb="21" eb="22">
+      <t>ウ</t>
     </rPh>
-    <rPh sb="32" eb="34">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>左上に〇。</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダリウエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.Boardインスタンスを生成する。
-2.selectCell(1,1)を呼び出す。
-3.showBoardを呼び出す。</t>
-    <rPh sb="14" eb="16">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Boardインスタンスを生成する。
-2.selectCell(0,4)を呼び出す。
-</t>
-    <rPh sb="14" eb="16">
-      <t>セイセイ</t>
+    <rPh sb="30" eb="32">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3153,7 +3120,7 @@
   <dimension ref="B1:AS17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:S7"/>
+      <selection activeCell="E9" sqref="E9:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3420,7 +3387,7 @@
       <c r="AR6" s="13"/>
       <c r="AS6" s="14"/>
     </row>
-    <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:45" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
@@ -3429,7 +3396,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -3483,7 +3450,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -4028,9 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53A9750-A365-4F33-B750-FCFA4F3E6211}">
   <dimension ref="A1:AS34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:S8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4048,7 +4013,7 @@
     <row r="1" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="23" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -4148,7 +4113,7 @@
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -4311,10 +4276,10 @@
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -4331,7 +4296,7 @@
       <c r="R6" s="20"/>
       <c r="S6" s="20"/>
       <c r="T6" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
@@ -4362,14 +4327,14 @@
     <row r="7" spans="1:45" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="3" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -4386,7 +4351,7 @@
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
@@ -5054,8 +5019,8 @@
   </sheetPr>
   <dimension ref="B1:AS17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:S9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5070,7 +5035,7 @@
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -5331,7 +5296,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
@@ -5348,7 +5313,7 @@
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
       <c r="T7" s="41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="U7" s="41"/>
       <c r="V7" s="41"/>
@@ -5382,10 +5347,10 @@
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="11" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
@@ -5402,7 +5367,7 @@
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
       <c r="T8" s="41" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U8" s="41"/>
       <c r="V8" s="41"/>
@@ -5975,7 +5940,7 @@
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -6073,7 +6038,7 @@
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6229,14 +6194,14 @@
     </row>
     <row r="7" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -6253,7 +6218,7 @@
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
@@ -6283,14 +6248,14 @@
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -6307,7 +6272,7 @@
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
@@ -6337,14 +6302,14 @@
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -6361,7 +6326,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -6391,14 +6356,14 @@
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -6415,7 +6380,7 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
@@ -6445,14 +6410,14 @@
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -6469,7 +6434,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
@@ -6499,14 +6464,14 @@
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -6523,7 +6488,7 @@
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
       <c r="T12" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
@@ -6912,7 +6877,7 @@
     <row r="1" spans="2:45" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -7010,7 +6975,7 @@
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -7170,10 +7135,10 @@
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -7190,7 +7155,7 @@
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
@@ -7220,14 +7185,14 @@
     </row>
     <row r="8" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -7244,7 +7209,7 @@
       <c r="R8" s="20"/>
       <c r="S8" s="20"/>
       <c r="T8" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
@@ -7274,14 +7239,14 @@
     </row>
     <row r="9" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -7298,7 +7263,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
@@ -7328,14 +7293,14 @@
     </row>
     <row r="10" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -7352,7 +7317,7 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
@@ -7382,14 +7347,14 @@
     </row>
     <row r="11" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -7406,7 +7371,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
       <c r="T11" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
@@ -7436,14 +7401,14 @@
     </row>
     <row r="12" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -7460,7 +7425,7 @@
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
       <c r="T12" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
@@ -7490,14 +7455,14 @@
     </row>
     <row r="13" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -7514,7 +7479,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
       <c r="T13" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
@@ -7544,14 +7509,14 @@
     </row>
     <row r="14" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -7568,7 +7533,7 @@
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
       <c r="T14" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
@@ -7598,14 +7563,14 @@
     </row>
     <row r="15" spans="2:45" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -7622,7 +7587,7 @@
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
       <c r="T15" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
@@ -7863,31 +7828,31 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -7897,12 +7862,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7911,7 +7870,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -8095,23 +8054,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC3FF4B1-ACD2-4007-9C2C-3C7AAD5A855E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8119,7 +8068,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{971988CF-74E7-4E5B-AD15-29F759FAD656}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8135,4 +8084,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B257B7-AF3C-4A86-9B47-979C0D6B0679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>